--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -13,10 +13,122 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Rodada 20</t>
+  </si>
+  <si>
+    <t>seralex</t>
+  </si>
+  <si>
+    <t>Analove10 ITAQUI GRANDE!!</t>
+  </si>
+  <si>
+    <t>Dom Camillo68</t>
+  </si>
+  <si>
+    <t>Tatols Beants F.C</t>
+  </si>
+  <si>
+    <t>OlhaEleAiF.C!</t>
+  </si>
+  <si>
+    <t>Fedato Futebol Clube</t>
+  </si>
+  <si>
+    <t>Texas Club 2025</t>
+  </si>
+  <si>
+    <t>FBC Colorado</t>
+  </si>
+  <si>
+    <t>pura bucha /botafogo</t>
+  </si>
+  <si>
+    <t>S.E.R. GRILLO</t>
+  </si>
+  <si>
+    <t>Lá do Itaqui</t>
+  </si>
+  <si>
+    <t>HS SPORTS F.C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Los Castilho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Lenda Super Vasco F.c </t>
+  </si>
+  <si>
+    <t>Super Vasco f.c</t>
+  </si>
+  <si>
+    <t>MAFRA MARTINS FC</t>
+  </si>
+  <si>
+    <t>VASCO MARTINS FC</t>
+  </si>
+  <si>
+    <t>Rolo Compressor  ZN</t>
+  </si>
+  <si>
+    <t>KP JUV.</t>
+  </si>
+  <si>
+    <t>PUXE FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRESMO COM PINGA  </t>
+  </si>
+  <si>
+    <t>Gremiomaniasm</t>
+  </si>
+  <si>
+    <t>Noah A 10</t>
+  </si>
+  <si>
+    <t>MauHumor F.C.</t>
+  </si>
+  <si>
+    <t>Pity10</t>
+  </si>
+  <si>
+    <t>lsauer fc</t>
+  </si>
+  <si>
+    <t>cartola scheuer</t>
+  </si>
+  <si>
+    <t>Paulo Virgili FC</t>
+  </si>
+  <si>
+    <t>FIGUEIRA DA ILHA</t>
+  </si>
+  <si>
+    <t>teves_futsal20 f.c</t>
+  </si>
+  <si>
+    <t>C.A. Charru@</t>
+  </si>
+  <si>
+    <t>JV5 Tricolor Gaúcho</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +152,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +470,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>45.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>47.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>55.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>47.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>53.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>38.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>52.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>31.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>60.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>46.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>56.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>52.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>43.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>122.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>40.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>38.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>38.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>52.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>29.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>37.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>37.81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>35.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>31.76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>47.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>38.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>41.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>34.81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>55.71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>45.26</v>
+        <v>70.81005859375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>47.81</v>
+        <v>68.10986328125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>23.4</v>
+        <v>64.91015625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>55.71</v>
+        <v>85.85986328125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>39.31</v>
+        <v>43.010009765625</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>47.36</v>
+        <v>74.41015625</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -534,7 +534,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>53.66</v>
+        <v>84.4599609375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -542,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>38.36</v>
+        <v>59.659912109375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -550,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>52.81</v>
+        <v>75.60986328125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -558,7 +558,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>17.61</v>
+        <v>18.81005859375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -566,7 +566,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>31.19</v>
+        <v>50.2900390625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>60.86</v>
+        <v>79.9599609375</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -582,7 +582,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>46.01</v>
+        <v>76.9599609375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -590,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>56.53</v>
+        <v>87.330078125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -598,7 +598,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>52.33</v>
+        <v>69.52978515625</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -606,7 +606,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>43.91</v>
+        <v>50.31005859375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -614,7 +614,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>122.78</v>
+        <v>124.68017578125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -622,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>40.21</v>
+        <v>70.56005859375</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -630,7 +630,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>38.91</v>
+        <v>75.9599609375</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -638,7 +638,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>38.36</v>
+        <v>76.509765625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -646,7 +646,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>52.33</v>
+        <v>78.93017578125</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -654,7 +654,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>29.76</v>
+        <v>53.260009765625</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -662,7 +662,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>37.94</v>
+        <v>69.39013671875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -670,7 +670,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>37.81</v>
+        <v>70.35986328125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -678,7 +678,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>35.36</v>
+        <v>65.4599609375</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -686,7 +686,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>31.76</v>
+        <v>62.56005859375</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -694,7 +694,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>47.36</v>
+        <v>73.9599609375</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -702,7 +702,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>35.25</v>
+        <v>90.10009765625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>38.46</v>
+        <v>71.759765625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -718,7 +718,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>41.36</v>
+        <v>71.4599609375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -726,7 +726,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>34.81</v>
+        <v>71.35986328125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -734,7 +734,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>55.71</v>
+        <v>81.4599609375</v>
       </c>
     </row>
   </sheetData>
